--- a/biology/Médecine/Cornet_nasal/Cornet_nasal.xlsx
+++ b/biology/Médecine/Cornet_nasal/Cornet_nasal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cornets nasaux sont 3 paires de lames osseuses enroulées participant aux fosses nasales chez les vertébrés. Ils sont formés par deux os, le cornet nasal inférieur et l'os ethmoïde. Leur structure tridimensionnelle et la muqueuse spécialisée des cornets sont responsable de leurs fonctions : respiratoire (filtration, humidification et chauffage de l'air inhalé avant qu'il n'atteigne les poumons), immunologique (piège des agents pathogènes) et olfactive (flux d'air dirigé vers les récepteurs du nerf olfactif).
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cornets sont une superposition d'os longs, étroits et courbes (en forme de coquillage étiré), recouverts d'une épaisse couche de tissu, très vascularisée, érectile et glandulaire.
 Ils sont placés latéralement dans les cavités nasales et s'enroulent de façon médiale et vers le bas à l'intérieur des voies respiratoires nasales.
@@ -549,7 +563,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les côtés se trouvent trois cornets qui offrent une résistance à l'écoulement de l'air et le dirigent vers l'épithélium olfactif en haut.
 Les cornets jouent un rôle majeur dans le processus respiratoire. Une résection excessive de cornets (turbinectomie) chez l'homme peut conduire au syndrome du nez vide (SNV), également connu sous le nom de Empty Nose Syndrome (ENS). Dans le traitement de la déglutition infantile, cet acte chirurgical peut être évité via une modification du comportement lingual au cours des 1 500 à 2 000 déglutitions salivaires quotidiennes.
@@ -557,8 +573,8 @@
 Les cellules caliciformes de l’épithélium cylindrique cilié et le mucus sur les parois éliminent de l'air circulant la poussière et les germes. Les cils repoussent le mucus vers le pharynx, où il sera dégluti.
 Les cornets disposent d'un réseau d'approvisionnement sanguin et nerveux très riche qui leur donne des capacités d'érection considérables (très semblables au pénis), de turgescence et de décongestion, en réponse aux conditions climatiques et aux besoins sans cesse fluctuants du corps.
 Par exemple, si une personne doit soudainement se mettre à courir pour éviter un danger, les cornets vont automatiquement se rétrécir, permettant ainsi une plus grande absorption d'air à chaque inspiration.
-D'un autre côté, si quelqu'un essaie de se reposer dans un environnement froid et sec, les cornets vont gonfler pour fournir une surface muqueuse d'exposition à l'air plus importante, garantissant ainsi que tout l'air aspiré par le nez traverse ces tissus et soit suffisamment réchauffé (ajustement à la température corporelle), humidifié (en moyenne 70 à 80 % d'humidité) et filtré[1].
-L'air exhalé étant plus chaud et plus saturé que la muqueuse, l'épithélium nasal récupère généralement environ un tiers de cette chaleur et de cette humidité lors de l'expiration en conditions tempérées[1].
+D'un autre côté, si quelqu'un essaie de se reposer dans un environnement froid et sec, les cornets vont gonfler pour fournir une surface muqueuse d'exposition à l'air plus importante, garantissant ainsi que tout l'air aspiré par le nez traverse ces tissus et soit suffisamment réchauffé (ajustement à la température corporelle), humidifié (en moyenne 70 à 80 % d'humidité) et filtré.
+L'air exhalé étant plus chaud et plus saturé que la muqueuse, l'épithélium nasal récupère généralement environ un tiers de cette chaleur et de cette humidité lors de l'expiration en conditions tempérées.
 De même, ils gonflent lorsque les cavités nasales sont exposées à un allergène qui provoque l'inflammation des muqueuses et une production abondante de mucus. Dans le traitement de la déglutition atypique, cette inflammation chronique des muqueuses nasales (respiration buccale) peut également trouver une issue via une élévation permanente de la posture linguale. Chez l'enfant, celle-ci favorise la croissance volumétrique du palais, des fosses nasales et des sinus maxillaires ; contribuant ainsi à l'amélioration de leur ventilation (respiration nasale).
 Le filtrage est assuré par une couche mince appelée « épithélium alvéolaire » qui recouvre le tissu érectile des cornets, lui-même appelé « couche endothéliale » ou « lamina propria ».
 Cette couche est faite de cellules à gobelet qui sécrètent le mucus destiné à recouvrir les cavités nasales et transportent le sérum lymphatique contenant des agents anti-bactériens et anti-viraux et jouant un rôle majeur dans la première ligne de défense respiratoire du corps.
@@ -602,7 +618,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La concha bullosa est une pneumatisation du cornet moyen.
 </t>
